--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt1.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
